--- a/AutomationPractise/Utilities/Excel.xlsx
+++ b/AutomationPractise/Utilities/Excel.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://practice.automationtesting.in/</t>
+  </si>
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -28,19 +41,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">tester0101@yopmail.com</t>
+    <t xml:space="preserve">Ashish19@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ashishkumar70715&amp;</t>
   </si>
   <si>
-    <t xml:space="preserve">tester9999@yopmail.com</t>
+    <t xml:space="preserve">Ashish15@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">anilkumar70715&amp;</t>
   </si>
   <si>
-    <t xml:space="preserve">tester0000yopmail.com</t>
+    <t xml:space="preserve">Ashish15yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish10@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -51,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,6 +95,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,6 +174,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,13 +262,59 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4998" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.79"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://practice.automationtesting.in/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4998" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.87"/>
@@ -250,55 +322,50 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="tester0101@yopmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="tester9999@yopmail.com"/>
-    <hyperlink ref="A6" r:id="rId3" display="tester9999@yopmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/AutomationPractise/Utilities/Excel.xlsx
+++ b/AutomationPractise/Utilities/Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Url</t>
   </si>
   <si>
-    <t xml:space="preserve">Firefox</t>
+    <t xml:space="preserve">Chrome</t>
   </si>
   <si>
     <t xml:space="preserve">http://practice.automationtesting.in/</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashish19@yopmail.com</t>
+    <t xml:space="preserve">Ashish1204@yopmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ashishkumar70715&amp;</t>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,12 +95,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,10 +168,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,11 +254,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4998" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.79"/>
   </cols>
@@ -310,11 +300,11 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4998" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.87"/>
@@ -329,34 +319,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
